--- a/fuentes/contenidos/grado07/guion08/Escaleta_LE_07_08_CO_Version_2.xlsx
+++ b/fuentes/contenidos/grado07/guion08/Escaleta_LE_07_08_CO_Version_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1428,22 +1423,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,6 +1454,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1716,7 +1711,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1751,7 +1746,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1962,127 +1957,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="69.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="46" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="46" customWidth="1"/>
+    <col min="15" max="15" width="22.5" style="46" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="46" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" style="46" customWidth="1"/>
     <col min="18" max="18" width="5" style="24" customWidth="1"/>
-    <col min="19" max="19" width="30.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.7109375" style="24"/>
+    <col min="19" max="19" width="30.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:21" ht="15">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="57"/>
+    <row r="2" spans="1:21" ht="15">
+      <c r="A2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="5" t="s">
         <v>71</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="50"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="60"/>
+    </row>
+    <row r="3" spans="1:21" ht="15">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2189,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2249,7 +2244,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2306,7 +2301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2363,7 +2358,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2420,7 +2415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2479,7 +2474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2538,7 +2533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2597,7 +2592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2651,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2717,7 +2712,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2776,7 +2771,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2835,7 +2830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +2887,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2949,7 +2944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3006,7 +3001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3063,7 +3058,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -3122,7 +3117,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3183,7 +3178,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3242,7 +3237,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3301,7 +3296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3318,7 +3313,7 @@
         <v>210</v>
       </c>
       <c r="F24" s="30"/>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="31" t="s">
         <v>211</v>
       </c>
       <c r="H24" s="21">
@@ -3360,7 +3355,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -3419,7 +3414,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3478,7 +3473,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3537,7 +3532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -3596,7 +3591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -3655,7 +3650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -3714,7 +3709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3773,7 +3768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -3832,7 +3827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -3889,7 +3884,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -3946,7 +3941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -4003,7 +3998,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -4046,7 +4041,7 @@
       <c r="T36" s="35"/>
       <c r="U36" s="33"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -4103,7 +4098,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -4160,6 +4155,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4174,12 +4175,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I38">
@@ -4187,7 +4182,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4238,27 +4232,27 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="34" style="7" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="18" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="7" customWidth="1"/>
     <col min="12" max="12" width="17" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="7"/>
-    <col min="14" max="14" width="24.28515625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.85546875" style="7"/>
+    <col min="13" max="13" width="10.83203125" style="7"/>
+    <col min="14" max="14" width="24.33203125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -4275,7 +4269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -4299,7 +4293,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -4318,7 +4312,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -4337,7 +4331,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -4353,7 +4347,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -4370,7 +4364,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -4387,7 +4381,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4402,7 +4396,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4417,7 +4411,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4432,7 +4426,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4447,7 +4441,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4462,7 +4456,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4477,7 +4471,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -4492,7 +4486,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4507,7 +4501,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4522,7 +4516,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
@@ -4536,7 +4530,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
@@ -4550,7 +4544,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">
@@ -4564,7 +4558,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
@@ -4578,7 +4572,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4593,7 +4587,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -4608,7 +4602,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4623,7 +4617,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4638,7 +4632,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4653,7 +4647,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4668,7 +4662,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -4683,7 +4677,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4698,7 +4692,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -4713,7 +4707,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -4728,7 +4722,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -4743,7 +4737,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -4758,7 +4752,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -4773,7 +4767,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -4788,7 +4782,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -4803,7 +4797,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -4818,7 +4812,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -4833,7 +4827,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -4848,7 +4842,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -4863,7 +4857,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -4878,7 +4872,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -4893,7 +4887,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -4908,7 +4902,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -4923,7 +4917,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -4938,7 +4932,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -4953,7 +4947,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -4968,7 +4962,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -4983,7 +4977,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -4998,7 +4992,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -5010,7 +5004,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -5022,7 +5016,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -5035,7 +5029,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -5048,7 +5042,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -5061,7 +5055,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -5074,7 +5068,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -5087,7 +5081,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -5100,7 +5094,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -5113,7 +5107,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -5126,7 +5120,7 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -5139,7 +5133,7 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -5152,7 +5146,7 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -5165,7 +5159,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -5178,7 +5172,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -5191,7 +5185,7 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -5204,7 +5198,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -5217,7 +5211,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -5230,7 +5224,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5243,7 +5237,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -5256,7 +5250,7 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -5269,7 +5263,7 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -5282,7 +5276,7 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -5296,7 +5290,7 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -5310,7 +5304,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -5324,7 +5318,7 @@
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -5338,7 +5332,7 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -5352,7 +5346,7 @@
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -5366,7 +5360,7 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -5380,7 +5374,7 @@
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -5394,7 +5388,7 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -5408,7 +5402,7 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -5422,7 +5416,7 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -5436,7 +5430,7 @@
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -5450,7 +5444,7 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -5464,7 +5458,7 @@
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -5478,7 +5472,7 @@
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -5492,7 +5486,7 @@
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -5506,7 +5500,7 @@
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -5520,7 +5514,7 @@
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -5534,7 +5528,7 @@
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -5548,7 +5542,7 @@
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -5562,7 +5556,7 @@
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -5576,7 +5570,7 @@
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -5590,7 +5584,7 @@
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -5604,7 +5598,7 @@
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -5618,7 +5612,7 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -5632,7 +5626,7 @@
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -5646,7 +5640,7 @@
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -5660,7 +5654,7 @@
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -5674,7 +5668,7 @@
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -5688,7 +5682,7 @@
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -5702,7 +5696,7 @@
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -5716,7 +5710,7 @@
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -5730,7 +5724,7 @@
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -5744,7 +5738,7 @@
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -5758,7 +5752,7 @@
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -5772,7 +5766,7 @@
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -5786,7 +5780,7 @@
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -5800,7 +5794,7 @@
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -5814,7 +5808,7 @@
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -5828,7 +5822,7 @@
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -5842,7 +5836,7 @@
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -5856,7 +5850,7 @@
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -5870,7 +5864,7 @@
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -5884,7 +5878,7 @@
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -5898,7 +5892,7 @@
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -5912,7 +5906,7 @@
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -5926,7 +5920,7 @@
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -5940,7 +5934,7 @@
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -5954,7 +5948,7 @@
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -5968,7 +5962,7 @@
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -5982,7 +5976,7 @@
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -5996,7 +5990,7 @@
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -6010,7 +6004,7 @@
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -6024,7 +6018,7 @@
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -6038,7 +6032,7 @@
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -6052,7 +6046,7 @@
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -6066,7 +6060,7 @@
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -6080,7 +6074,7 @@
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -6094,7 +6088,7 @@
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -6108,7 +6102,7 @@
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -6122,7 +6116,7 @@
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -6136,7 +6130,7 @@
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -6150,7 +6144,7 @@
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>

--- a/fuentes/contenidos/grado07/guion08/Escaleta_LE_07_08_CO_Version_2.xlsx
+++ b/fuentes/contenidos/grado07/guion08/Escaleta_LE_07_08_CO_Version_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13120"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>Presentar caricaturas en las imágenes que permite el recurso y preguntas de interpretación sobre las mismas; que se resalte la función crítica y paródica de la caricatura.</t>
-  </si>
-  <si>
-    <t>Sistemas simbólicos: responde las preguntas sobre la caricatura</t>
   </si>
   <si>
     <t>Actividad diagnóstica sobre este tipo de dibujo satírico</t>
@@ -823,6 +820,9 @@
       </rPr>
       <t>El castillo de Otranto</t>
     </r>
+  </si>
+  <si>
+    <t>Sistemas simbólicos: las características de la caricatura</t>
   </si>
 </sst>
 </file>
@@ -1423,13 +1423,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,15 +1463,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1988,94 +1988,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="51" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="5" t="s">
         <v>71</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="60"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="1:21" ht="15">
       <c r="A3" s="1" t="s">
@@ -2317,14 +2317,14 @@
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
       <c r="G7" s="31" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="H7" s="21">
         <v>5</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -2374,14 +2374,14 @@
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="21">
         <v>6</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>20</v>
@@ -2394,7 +2394,7 @@
         <v>24</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>19</v>
@@ -2409,7 +2409,7 @@
         <v>92</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U8" s="26" t="s">
         <v>94</v>
@@ -2426,7 +2426,7 @@
         <v>86</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
@@ -2437,10 +2437,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>20</v>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>19</v>
@@ -2465,13 +2465,13 @@
         <v>91</v>
       </c>
       <c r="S9" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="T9" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="T9" s="35" t="s">
+      <c r="U9" s="33" t="s">
         <v>120</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15">
@@ -2485,21 +2485,21 @@
         <v>86</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H10" s="21">
         <v>8</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
@@ -2512,7 +2512,7 @@
         <v>36</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>19</v>
@@ -2527,7 +2527,7 @@
         <v>92</v>
       </c>
       <c r="T10" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U10" s="26" t="s">
         <v>94</v>
@@ -2544,21 +2544,21 @@
         <v>86</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="21">
         <v>9</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>20</v>
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>19</v>
@@ -2586,7 +2586,7 @@
         <v>92</v>
       </c>
       <c r="T11" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U11" s="26" t="s">
         <v>94</v>
@@ -2603,21 +2603,21 @@
         <v>86</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="21">
         <v>10</v>
       </c>
       <c r="I12" s="37"/>
       <c r="J12" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>20</v>
@@ -2630,7 +2630,7 @@
         <v>34</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>19</v>
@@ -2645,7 +2645,7 @@
         <v>92</v>
       </c>
       <c r="T12" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U12" s="26" t="s">
         <v>94</v>
@@ -2662,23 +2662,23 @@
         <v>86</v>
       </c>
       <c r="D13" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>124</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="21">
         <v>11</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>20</v>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>19</v>
@@ -2700,16 +2700,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="S13" s="39" t="s">
+      <c r="T13" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="T13" s="41" t="s">
+      <c r="U13" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15">
@@ -2723,21 +2723,21 @@
         <v>86</v>
       </c>
       <c r="D14" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>124</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="21">
         <v>12</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>20</v>
@@ -2750,7 +2750,7 @@
         <v>52</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P14" s="18" t="s">
         <v>19</v>
@@ -2765,7 +2765,7 @@
         <v>92</v>
       </c>
       <c r="T14" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U14" s="26" t="s">
         <v>94</v>
@@ -2782,21 +2782,21 @@
         <v>86</v>
       </c>
       <c r="D15" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>124</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15" s="21">
         <v>13</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>20</v>
@@ -2809,7 +2809,7 @@
         <v>28</v>
       </c>
       <c r="O15" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>20</v>
@@ -2824,7 +2824,7 @@
         <v>92</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U15" s="26" t="s">
         <v>94</v>
@@ -2841,21 +2841,21 @@
         <v>86</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="30"/>
       <c r="G16" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="21">
         <v>14</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>19</v>
@@ -2866,7 +2866,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P16" s="18" t="s">
         <v>19</v>
@@ -2881,7 +2881,7 @@
         <v>96</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U16" s="33" t="s">
         <v>98</v>
@@ -2898,21 +2898,21 @@
         <v>86</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="21">
         <v>15</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>19</v>
@@ -2923,7 +2923,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P17" s="18" t="s">
         <v>19</v>
@@ -2938,7 +2938,7 @@
         <v>96</v>
       </c>
       <c r="T17" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U17" s="33" t="s">
         <v>98</v>
@@ -2955,21 +2955,21 @@
         <v>86</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="21">
         <v>16</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>19</v>
@@ -2980,7 +2980,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P18" s="18" t="s">
         <v>19</v>
@@ -2995,7 +2995,7 @@
         <v>96</v>
       </c>
       <c r="T18" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U18" s="33" t="s">
         <v>98</v>
@@ -3012,21 +3012,21 @@
         <v>86</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>19</v>
@@ -3037,7 +3037,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P19" s="18" t="s">
         <v>19</v>
@@ -3052,7 +3052,7 @@
         <v>96</v>
       </c>
       <c r="T19" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U19" s="33" t="s">
         <v>98</v>
@@ -3069,21 +3069,21 @@
         <v>86</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H20" s="21">
         <v>18</v>
       </c>
       <c r="I20" s="37"/>
       <c r="J20" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>20</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="O20" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P20" s="18" t="s">
         <v>19</v>
@@ -3111,7 +3111,7 @@
         <v>92</v>
       </c>
       <c r="T20" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U20" s="26" t="s">
         <v>94</v>
@@ -3128,23 +3128,23 @@
         <v>86</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H21" s="21">
         <v>19</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>20</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P21" s="18" t="s">
         <v>19</v>
@@ -3166,16 +3166,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="S21" s="39" t="s">
-        <v>128</v>
-      </c>
       <c r="T21" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U21" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15">
@@ -3189,21 +3189,21 @@
         <v>86</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>20</v>
@@ -3216,7 +3216,7 @@
         <v>52</v>
       </c>
       <c r="O22" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P22" s="18" t="s">
         <v>19</v>
@@ -3231,7 +3231,7 @@
         <v>92</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U22" s="26" t="s">
         <v>94</v>
@@ -3248,21 +3248,21 @@
         <v>86</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="30"/>
       <c r="G23" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H23" s="21">
         <v>21</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>20</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P23" s="18" t="s">
         <v>19</v>
@@ -3284,16 +3284,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="S23" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="S23" s="39" t="s">
-        <v>128</v>
-      </c>
       <c r="T23" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U23" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15">
@@ -3307,21 +3307,21 @@
         <v>86</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H24" s="21">
         <v>22</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>20</v>
@@ -3334,7 +3334,7 @@
         <v>48</v>
       </c>
       <c r="O24" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P24" s="18" t="s">
         <v>19</v>
@@ -3349,7 +3349,7 @@
         <v>92</v>
       </c>
       <c r="T24" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U24" s="26" t="s">
         <v>94</v>
@@ -3366,23 +3366,23 @@
         <v>86</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" s="21">
         <v>23</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>19</v>
@@ -3393,7 +3393,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P25" s="18" t="s">
         <v>19</v>
@@ -3405,13 +3405,13 @@
         <v>95</v>
       </c>
       <c r="S25" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="T25" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="T25" s="35" t="s">
+      <c r="U25" s="33" t="s">
         <v>200</v>
-      </c>
-      <c r="U25" s="33" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15">
@@ -3425,21 +3425,21 @@
         <v>86</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H26" s="21">
         <v>24</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>20</v>
@@ -3452,7 +3452,7 @@
         <v>52</v>
       </c>
       <c r="O26" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P26" s="18" t="s">
         <v>19</v>
@@ -3467,7 +3467,7 @@
         <v>92</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U26" s="26" t="s">
         <v>94</v>
@@ -3484,21 +3484,21 @@
         <v>86</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H27" s="21">
         <v>25</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>20</v>
@@ -3511,7 +3511,7 @@
         <v>23</v>
       </c>
       <c r="O27" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P27" s="18" t="s">
         <v>20</v>
@@ -3526,7 +3526,7 @@
         <v>92</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U27" s="26" t="s">
         <v>94</v>
@@ -3543,23 +3543,23 @@
         <v>86</v>
       </c>
       <c r="D28" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>221</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>222</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" s="21">
         <v>26</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>19</v>
@@ -3570,7 +3570,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P28" s="18" t="s">
         <v>19</v>
@@ -3582,13 +3582,13 @@
         <v>95</v>
       </c>
       <c r="S28" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="T28" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="T28" s="35" t="s">
+      <c r="U28" s="33" t="s">
         <v>224</v>
-      </c>
-      <c r="U28" s="33" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15">
@@ -3602,21 +3602,21 @@
         <v>86</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H29" s="21">
         <v>27</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>20</v>
@@ -3629,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P29" s="18" t="s">
         <v>19</v>
@@ -3644,7 +3644,7 @@
         <v>92</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U29" s="26" t="s">
         <v>94</v>
@@ -3661,21 +3661,21 @@
         <v>86</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H30" s="21">
         <v>28</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>20</v>
@@ -3688,7 +3688,7 @@
         <v>52</v>
       </c>
       <c r="O30" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P30" s="18" t="s">
         <v>19</v>
@@ -3703,7 +3703,7 @@
         <v>92</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U30" s="26" t="s">
         <v>94</v>
@@ -3720,21 +3720,21 @@
         <v>86</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H31" s="21">
         <v>29</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>20</v>
@@ -3747,7 +3747,7 @@
         <v>32</v>
       </c>
       <c r="O31" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>20</v>
@@ -3762,7 +3762,7 @@
         <v>92</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U31" s="44" t="s">
         <v>94</v>
@@ -3779,21 +3779,21 @@
         <v>86</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="30"/>
       <c r="G32" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>20</v>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>19</v>
@@ -3815,16 +3815,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="S32" s="39" t="s">
-        <v>128</v>
-      </c>
       <c r="T32" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U32" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15">
@@ -3838,21 +3838,21 @@
         <v>86</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="30"/>
       <c r="G33" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H33" s="21">
         <v>31</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>19</v>
@@ -3863,7 +3863,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P33" s="18" t="s">
         <v>19</v>
@@ -3875,13 +3875,13 @@
         <v>95</v>
       </c>
       <c r="S33" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T33" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="U33" s="33" t="s">
         <v>160</v>
-      </c>
-      <c r="U33" s="33" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15">
@@ -3895,19 +3895,19 @@
         <v>86</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30"/>
       <c r="G34" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="21">
         <v>32</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>20</v>
@@ -3920,7 +3920,7 @@
         <v>45</v>
       </c>
       <c r="O34" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P34" s="18" t="s">
         <v>19</v>
@@ -3935,7 +3935,7 @@
         <v>92</v>
       </c>
       <c r="T34" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U34" s="26" t="s">
         <v>94</v>
@@ -3952,19 +3952,19 @@
         <v>86</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30"/>
       <c r="G35" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H35" s="21">
         <v>33</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>20</v>
@@ -3977,7 +3977,7 @@
         <v>44</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P35" s="18" t="s">
         <v>19</v>
@@ -3992,7 +3992,7 @@
         <v>92</v>
       </c>
       <c r="T35" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U35" s="26" t="s">
         <v>94</v>
@@ -4009,7 +4009,7 @@
         <v>86</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30"/>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>20</v>
@@ -4052,19 +4052,19 @@
         <v>86</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="30"/>
       <c r="G37" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H37" s="23">
         <v>35</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>20</v>
@@ -4077,7 +4077,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P37" s="18" t="s">
         <v>19</v>
@@ -4092,7 +4092,7 @@
         <v>92</v>
       </c>
       <c r="T37" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U37" s="44" t="s">
         <v>94</v>
@@ -4109,7 +4109,7 @@
         <v>86</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="30"/>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>20</v>
@@ -4132,7 +4132,7 @@
         <v>53</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P38" s="18" t="s">
         <v>20</v>
@@ -4147,7 +4147,7 @@
         <v>92</v>
       </c>
       <c r="T38" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U38" s="33" t="s">
         <v>94</v>
@@ -4155,12 +4155,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4175,6 +4169,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I38">
